--- a/KNUH/QC/품질진단지표.xlsx
+++ b/KNUH/QC/품질진단지표.xlsx
@@ -20,8 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -588,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1296"/>
+  <dimension ref="A1:P1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -62817,6 +62818,4354 @@
       </c>
       <c r="P1296" s="0" t="n">
         <v>0.997337038323492</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1297" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1297" s="0" t="inlineStr">
+        <is>
+          <t>care_site_id</t>
+        </is>
+      </c>
+      <c r="D1297" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1297" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1297" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1297" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1297" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1297" s="0" t="n">
+        <v>2.738612787525831</v>
+      </c>
+      <c r="J1297" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1297" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1297" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1297" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1297" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1297" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1298" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1298" s="0" t="inlineStr">
+        <is>
+          <t>care_site_name</t>
+        </is>
+      </c>
+      <c r="D1298" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1298" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1298" s="0" t="inlineStr">
+        <is>
+          <t>심뇌재활센터</t>
+        </is>
+      </c>
+      <c r="G1298" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1298" s="0" t="inlineStr"/>
+      <c r="I1298" s="0" t="inlineStr"/>
+      <c r="J1298" s="0" t="inlineStr"/>
+      <c r="K1298" s="0" t="inlineStr"/>
+      <c r="L1298" s="0" t="inlineStr"/>
+      <c r="M1298" s="0" t="inlineStr"/>
+      <c r="N1298" s="0" t="inlineStr"/>
+      <c r="O1298" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1299" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1299" s="0" t="inlineStr">
+        <is>
+          <t>place_of_service_concept_id</t>
+        </is>
+      </c>
+      <c r="D1299" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1299" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1299" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1300" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1300" s="0" t="inlineStr">
+        <is>
+          <t>location_id</t>
+        </is>
+      </c>
+      <c r="D1300" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1300" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1300" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G1300" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1300" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="I1300" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1300" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1300" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1300" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1300" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1300" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1300" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1301" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1301" s="0" t="inlineStr">
+        <is>
+          <t>care_site_source_value</t>
+        </is>
+      </c>
+      <c r="D1301" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1301" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1301" s="0" t="n">
+        <v>2361300000</v>
+      </c>
+      <c r="G1301" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1301" s="0" t="n">
+        <v>2434567000</v>
+      </c>
+      <c r="I1301" s="0" t="n">
+        <v>161229975.037212</v>
+      </c>
+      <c r="J1301" s="0" t="n">
+        <v>2361300000</v>
+      </c>
+      <c r="K1301" s="0" t="n">
+        <v>2362000000</v>
+      </c>
+      <c r="L1301" s="0" t="n">
+        <v>2370101000</v>
+      </c>
+      <c r="M1301" s="0" t="n">
+        <v>2411800000</v>
+      </c>
+      <c r="N1301" s="0" t="n">
+        <v>2860000000</v>
+      </c>
+      <c r="O1301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1302" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1302" s="0" t="inlineStr">
+        <is>
+          <t>place_of_service_source_value</t>
+        </is>
+      </c>
+      <c r="D1302" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1302" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1302" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1302" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1302" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1302" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1302" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1302" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="M1302" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N1302" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1303" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1303" s="0" t="inlineStr">
+        <is>
+          <t>provider_id</t>
+        </is>
+      </c>
+      <c r="D1303" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1303" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1303" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1303" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1303" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1303" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1303" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1303" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1303" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1303" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N1303" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1303" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1304" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1304" s="0" t="inlineStr">
+        <is>
+          <t>provider_name</t>
+        </is>
+      </c>
+      <c r="D1304" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1304" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1304" s="0" t="inlineStr">
+        <is>
+          <t>이O정</t>
+        </is>
+      </c>
+      <c r="G1304" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1304" s="0" t="inlineStr"/>
+      <c r="I1304" s="0" t="inlineStr"/>
+      <c r="J1304" s="0" t="inlineStr"/>
+      <c r="K1304" s="0" t="inlineStr"/>
+      <c r="L1304" s="0" t="inlineStr"/>
+      <c r="M1304" s="0" t="inlineStr"/>
+      <c r="N1304" s="0" t="inlineStr"/>
+      <c r="O1304" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1305" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1305" s="0" t="inlineStr">
+        <is>
+          <t>npi</t>
+        </is>
+      </c>
+      <c r="D1305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1305" s="0" t="inlineStr"/>
+      <c r="G1305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1305" s="0" t="inlineStr"/>
+      <c r="I1305" s="0" t="inlineStr"/>
+      <c r="J1305" s="0" t="inlineStr"/>
+      <c r="K1305" s="0" t="inlineStr"/>
+      <c r="L1305" s="0" t="inlineStr"/>
+      <c r="M1305" s="0" t="inlineStr"/>
+      <c r="N1305" s="0" t="inlineStr"/>
+      <c r="O1305" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1305" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1306" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1306" s="0" t="inlineStr">
+        <is>
+          <t>dea</t>
+        </is>
+      </c>
+      <c r="D1306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1306" s="0" t="inlineStr"/>
+      <c r="G1306" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1306" s="0" t="inlineStr"/>
+      <c r="I1306" s="0" t="inlineStr"/>
+      <c r="J1306" s="0" t="inlineStr"/>
+      <c r="K1306" s="0" t="inlineStr"/>
+      <c r="L1306" s="0" t="inlineStr"/>
+      <c r="M1306" s="0" t="inlineStr"/>
+      <c r="N1306" s="0" t="inlineStr"/>
+      <c r="O1306" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1306" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1307" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1307" s="0" t="inlineStr">
+        <is>
+          <t>specialty_concept_id</t>
+        </is>
+      </c>
+      <c r="D1307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1307" s="0" t="inlineStr"/>
+      <c r="G1307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1307" s="0" t="inlineStr"/>
+      <c r="I1307" s="0" t="inlineStr"/>
+      <c r="J1307" s="0" t="inlineStr"/>
+      <c r="K1307" s="0" t="inlineStr"/>
+      <c r="L1307" s="0" t="inlineStr"/>
+      <c r="M1307" s="0" t="inlineStr"/>
+      <c r="N1307" s="0" t="inlineStr"/>
+      <c r="O1307" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1307" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1308" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1308" s="0" t="inlineStr">
+        <is>
+          <t>specialty_concept_id_name</t>
+        </is>
+      </c>
+      <c r="D1308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1308" s="0" t="inlineStr"/>
+      <c r="G1308" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1308" s="0" t="inlineStr"/>
+      <c r="I1308" s="0" t="inlineStr"/>
+      <c r="J1308" s="0" t="inlineStr"/>
+      <c r="K1308" s="0" t="inlineStr"/>
+      <c r="L1308" s="0" t="inlineStr"/>
+      <c r="M1308" s="0" t="inlineStr"/>
+      <c r="N1308" s="0" t="inlineStr"/>
+      <c r="O1308" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1308" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1309" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1309" s="0" t="inlineStr">
+        <is>
+          <t>care_site_id</t>
+        </is>
+      </c>
+      <c r="D1309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1309" s="0" t="inlineStr"/>
+      <c r="G1309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1309" s="0" t="inlineStr"/>
+      <c r="I1309" s="0" t="inlineStr"/>
+      <c r="J1309" s="0" t="inlineStr"/>
+      <c r="K1309" s="0" t="inlineStr"/>
+      <c r="L1309" s="0" t="inlineStr"/>
+      <c r="M1309" s="0" t="inlineStr"/>
+      <c r="N1309" s="0" t="inlineStr"/>
+      <c r="O1309" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1309" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1310" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1310" s="0" t="inlineStr">
+        <is>
+          <t>care_site_id_name</t>
+        </is>
+      </c>
+      <c r="D1310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1310" s="0" t="inlineStr"/>
+      <c r="G1310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1310" s="0" t="inlineStr"/>
+      <c r="I1310" s="0" t="inlineStr"/>
+      <c r="J1310" s="0" t="inlineStr"/>
+      <c r="K1310" s="0" t="inlineStr"/>
+      <c r="L1310" s="0" t="inlineStr"/>
+      <c r="M1310" s="0" t="inlineStr"/>
+      <c r="N1310" s="0" t="inlineStr"/>
+      <c r="O1310" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1310" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1311" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1311" s="0" t="inlineStr">
+        <is>
+          <t>year_of_birth</t>
+        </is>
+      </c>
+      <c r="D1311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1311" s="0" t="inlineStr"/>
+      <c r="G1311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1311" s="0" t="inlineStr"/>
+      <c r="I1311" s="0" t="inlineStr"/>
+      <c r="J1311" s="0" t="inlineStr"/>
+      <c r="K1311" s="0" t="inlineStr"/>
+      <c r="L1311" s="0" t="inlineStr"/>
+      <c r="M1311" s="0" t="inlineStr"/>
+      <c r="N1311" s="0" t="inlineStr"/>
+      <c r="O1311" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1311" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1312" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1312" s="0" t="inlineStr">
+        <is>
+          <t>gender_concept_id</t>
+        </is>
+      </c>
+      <c r="D1312" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1312" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1312" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1312" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1312" s="0" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1312" s="0" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1312" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1312" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1312" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1312" s="0" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1312" s="0" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1313" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1313" s="0" t="inlineStr">
+        <is>
+          <t>provider_source_value</t>
+        </is>
+      </c>
+      <c r="D1313" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1313" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1313" s="0" t="n">
+        <v>5279</v>
+      </c>
+      <c r="G1313" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1313" s="0" t="n">
+        <v>6551</v>
+      </c>
+      <c r="I1313" s="0" t="n">
+        <v>2199.705434825309</v>
+      </c>
+      <c r="J1313" s="0" t="n">
+        <v>5279</v>
+      </c>
+      <c r="K1313" s="0" t="n">
+        <v>5281</v>
+      </c>
+      <c r="L1313" s="0" t="n">
+        <v>5283</v>
+      </c>
+      <c r="M1313" s="0" t="n">
+        <v>7187</v>
+      </c>
+      <c r="N1313" s="0" t="n">
+        <v>9091</v>
+      </c>
+      <c r="O1313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1314" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1314" s="0" t="inlineStr">
+        <is>
+          <t>specialty_source_value</t>
+        </is>
+      </c>
+      <c r="D1314" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1314" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1314" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="G1314" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1314" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="I1314" s="0" t="n">
+        <v>110.8512516844081</v>
+      </c>
+      <c r="J1314" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="K1314" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="L1314" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="M1314" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="N1314" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="O1314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1315" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1315" s="0" t="inlineStr">
+        <is>
+          <t>specialty_source_value_name</t>
+        </is>
+      </c>
+      <c r="D1315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1315" s="0" t="inlineStr"/>
+      <c r="G1315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1315" s="0" t="inlineStr"/>
+      <c r="I1315" s="0" t="inlineStr"/>
+      <c r="J1315" s="0" t="inlineStr"/>
+      <c r="K1315" s="0" t="inlineStr"/>
+      <c r="L1315" s="0" t="inlineStr"/>
+      <c r="M1315" s="0" t="inlineStr"/>
+      <c r="N1315" s="0" t="inlineStr"/>
+      <c r="O1315" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1315" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1316" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1316" s="0" t="inlineStr">
+        <is>
+          <t>specialty_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1316" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1316" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1316" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1316" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1317" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1317" s="0" t="inlineStr">
+        <is>
+          <t>gender_source_value</t>
+        </is>
+      </c>
+      <c r="D1317" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1317" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1317" s="0" t="inlineStr">
+        <is>
+          <t>GNDR</t>
+        </is>
+      </c>
+      <c r="G1317" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1317" s="0" t="inlineStr"/>
+      <c r="I1317" s="0" t="inlineStr"/>
+      <c r="J1317" s="0" t="inlineStr"/>
+      <c r="K1317" s="0" t="inlineStr"/>
+      <c r="L1317" s="0" t="inlineStr"/>
+      <c r="M1317" s="0" t="inlineStr"/>
+      <c r="N1317" s="0" t="inlineStr"/>
+      <c r="O1317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1318" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1318" s="0" t="inlineStr">
+        <is>
+          <t>gender_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1318" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1318" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1318" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1318" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1318" s="0" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1318" s="0" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1318" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1318" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1318" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1318" s="0" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1318" s="0" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1319" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1319" s="0" t="inlineStr">
+        <is>
+          <t>person_id</t>
+        </is>
+      </c>
+      <c r="D1319" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1319" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1319" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1319" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1319" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1319" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1319" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1319" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1319" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1319" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N1319" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1320" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1320" s="0" t="inlineStr">
+        <is>
+          <t>gender_concept_id</t>
+        </is>
+      </c>
+      <c r="D1320" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1320" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1320" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1320" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1320" s="0" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1320" s="0" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1320" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1320" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1320" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1320" s="0" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1320" s="0" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1321" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1321" s="0" t="inlineStr">
+        <is>
+          <t>year_of_birth</t>
+        </is>
+      </c>
+      <c r="D1321" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1321" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1321" s="0" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G1321" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1321" s="0" t="n">
+        <v>1947.333333333333</v>
+      </c>
+      <c r="I1321" s="0" t="n">
+        <v>9.291573243177568</v>
+      </c>
+      <c r="J1321" s="0" t="n">
+        <v>1937</v>
+      </c>
+      <c r="K1321" s="0" t="n">
+        <v>1943.5</v>
+      </c>
+      <c r="L1321" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="M1321" s="0" t="n">
+        <v>1952.5</v>
+      </c>
+      <c r="N1321" s="0" t="n">
+        <v>1955</v>
+      </c>
+      <c r="O1321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1322" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1322" s="0" t="inlineStr">
+        <is>
+          <t>month_of_birth</t>
+        </is>
+      </c>
+      <c r="D1322" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1322" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1322" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1322" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1322" s="0" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I1322" s="0" t="n">
+        <v>3.511884584284246</v>
+      </c>
+      <c r="J1322" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1322" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1322" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1322" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N1322" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1322" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1323" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1323" s="0" t="inlineStr">
+        <is>
+          <t>day_of_birth</t>
+        </is>
+      </c>
+      <c r="D1323" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1323" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1323" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1323" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1323" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I1323" s="0" t="n">
+        <v>6.082762530298219</v>
+      </c>
+      <c r="J1323" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1323" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1323" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1323" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1323" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1324" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1324" s="0" t="inlineStr">
+        <is>
+          <t>birth_datetime</t>
+        </is>
+      </c>
+      <c r="D1324" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1324" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1324" s="8" t="n">
+        <v>13562</v>
+      </c>
+      <c r="G1324" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1324" s="8" t="n">
+        <v>17439.66666666667</v>
+      </c>
+      <c r="I1324" s="0" t="inlineStr"/>
+      <c r="J1324" s="8" t="n">
+        <v>13562</v>
+      </c>
+      <c r="K1324" s="8" t="n">
+        <v>15991</v>
+      </c>
+      <c r="L1324" s="8" t="n">
+        <v>18420</v>
+      </c>
+      <c r="M1324" s="8" t="n">
+        <v>19378.5</v>
+      </c>
+      <c r="N1324" s="8" t="n">
+        <v>20337</v>
+      </c>
+      <c r="O1324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1325" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1325" s="0" t="inlineStr">
+        <is>
+          <t>death_datetime</t>
+        </is>
+      </c>
+      <c r="D1325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1325" s="0" t="inlineStr"/>
+      <c r="G1325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1325" s="0" t="inlineStr"/>
+      <c r="I1325" s="0" t="inlineStr"/>
+      <c r="J1325" s="0" t="inlineStr"/>
+      <c r="K1325" s="0" t="inlineStr"/>
+      <c r="L1325" s="0" t="inlineStr"/>
+      <c r="M1325" s="0" t="inlineStr"/>
+      <c r="N1325" s="0" t="inlineStr"/>
+      <c r="O1325" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1325" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1326" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1326" s="0" t="inlineStr">
+        <is>
+          <t>race_concept_id</t>
+        </is>
+      </c>
+      <c r="D1326" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1326" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1326" s="0" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="G1326" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1326" s="0" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="I1326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1326" s="0" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="K1326" s="0" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="L1326" s="0" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="M1326" s="0" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="N1326" s="0" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="O1326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1327" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1327" s="0" t="inlineStr">
+        <is>
+          <t>ethnicity_concept_id</t>
+        </is>
+      </c>
+      <c r="D1327" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1327" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1327" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1327" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1328" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1328" s="0" t="inlineStr">
+        <is>
+          <t>location_id</t>
+        </is>
+      </c>
+      <c r="D1328" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1328" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1328" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="G1328" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1328" s="0" t="n">
+        <v>346.3333333333333</v>
+      </c>
+      <c r="I1328" s="0" t="n">
+        <v>19.13983629327412</v>
+      </c>
+      <c r="J1328" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="K1328" s="0" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="L1328" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="M1328" s="0" t="n">
+        <v>357</v>
+      </c>
+      <c r="N1328" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="O1328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1329" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1329" s="0" t="inlineStr">
+        <is>
+          <t>provider_id</t>
+        </is>
+      </c>
+      <c r="D1329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1329" s="0" t="inlineStr"/>
+      <c r="G1329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1329" s="0" t="inlineStr"/>
+      <c r="I1329" s="0" t="inlineStr"/>
+      <c r="J1329" s="0" t="inlineStr"/>
+      <c r="K1329" s="0" t="inlineStr"/>
+      <c r="L1329" s="0" t="inlineStr"/>
+      <c r="M1329" s="0" t="inlineStr"/>
+      <c r="N1329" s="0" t="inlineStr"/>
+      <c r="O1329" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1329" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1330" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1330" s="0" t="inlineStr">
+        <is>
+          <t>care_site_id</t>
+        </is>
+      </c>
+      <c r="D1330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1330" s="0" t="inlineStr"/>
+      <c r="G1330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1330" s="0" t="inlineStr"/>
+      <c r="I1330" s="0" t="inlineStr"/>
+      <c r="J1330" s="0" t="inlineStr"/>
+      <c r="K1330" s="0" t="inlineStr"/>
+      <c r="L1330" s="0" t="inlineStr"/>
+      <c r="M1330" s="0" t="inlineStr"/>
+      <c r="N1330" s="0" t="inlineStr"/>
+      <c r="O1330" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1330" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1331" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1331" s="0" t="inlineStr">
+        <is>
+          <t>person_source_value</t>
+        </is>
+      </c>
+      <c r="D1331" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1331" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1331" s="0" t="n">
+        <v>3606480</v>
+      </c>
+      <c r="G1331" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1331" s="0" t="n">
+        <v>4788956.333333333</v>
+      </c>
+      <c r="I1331" s="0" t="n">
+        <v>2043529.525446191</v>
+      </c>
+      <c r="J1331" s="0" t="n">
+        <v>3606480</v>
+      </c>
+      <c r="K1331" s="0" t="n">
+        <v>3609125</v>
+      </c>
+      <c r="L1331" s="0" t="n">
+        <v>3611770</v>
+      </c>
+      <c r="M1331" s="0" t="n">
+        <v>5380194.5</v>
+      </c>
+      <c r="N1331" s="0" t="n">
+        <v>7148619</v>
+      </c>
+      <c r="O1331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1332" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1332" s="0" t="inlineStr">
+        <is>
+          <t>환자명</t>
+        </is>
+      </c>
+      <c r="D1332" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1332" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1332" s="0" t="inlineStr">
+        <is>
+          <t>임O순</t>
+        </is>
+      </c>
+      <c r="G1332" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1332" s="0" t="inlineStr"/>
+      <c r="I1332" s="0" t="inlineStr"/>
+      <c r="J1332" s="0" t="inlineStr"/>
+      <c r="K1332" s="0" t="inlineStr"/>
+      <c r="L1332" s="0" t="inlineStr"/>
+      <c r="M1332" s="0" t="inlineStr"/>
+      <c r="N1332" s="0" t="inlineStr"/>
+      <c r="O1332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1333" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1333" s="0" t="inlineStr">
+        <is>
+          <t>gender_source_value</t>
+        </is>
+      </c>
+      <c r="D1333" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1333" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1333" s="0" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1333" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1333" s="0" t="inlineStr"/>
+      <c r="I1333" s="0" t="inlineStr"/>
+      <c r="J1333" s="0" t="inlineStr"/>
+      <c r="K1333" s="0" t="inlineStr"/>
+      <c r="L1333" s="0" t="inlineStr"/>
+      <c r="M1333" s="0" t="inlineStr"/>
+      <c r="N1333" s="0" t="inlineStr"/>
+      <c r="O1333" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1334" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1334" s="0" t="inlineStr">
+        <is>
+          <t>gender_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1334" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1334" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1334" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1334" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1334" s="0" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1334" s="0" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1334" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1334" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1334" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1334" s="0" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1334" s="0" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1335" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1335" s="0" t="inlineStr">
+        <is>
+          <t>race_source_value</t>
+        </is>
+      </c>
+      <c r="D1335" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1335" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1335" s="0" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G1335" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1335" s="0" t="inlineStr"/>
+      <c r="I1335" s="0" t="inlineStr"/>
+      <c r="J1335" s="0" t="inlineStr"/>
+      <c r="K1335" s="0" t="inlineStr"/>
+      <c r="L1335" s="0" t="inlineStr"/>
+      <c r="M1335" s="0" t="inlineStr"/>
+      <c r="N1335" s="0" t="inlineStr"/>
+      <c r="O1335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1336" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1336" s="0" t="inlineStr">
+        <is>
+          <t>race_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1336" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1336" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1336" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1337" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1337" s="0" t="inlineStr">
+        <is>
+          <t>ethnicity_source_value</t>
+        </is>
+      </c>
+      <c r="D1337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1337" s="0" t="inlineStr"/>
+      <c r="G1337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1337" s="0" t="inlineStr"/>
+      <c r="I1337" s="0" t="inlineStr"/>
+      <c r="J1337" s="0" t="inlineStr"/>
+      <c r="K1337" s="0" t="inlineStr"/>
+      <c r="L1337" s="0" t="inlineStr"/>
+      <c r="M1337" s="0" t="inlineStr"/>
+      <c r="N1337" s="0" t="inlineStr"/>
+      <c r="O1337" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1337" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1338" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1338" s="0" t="inlineStr">
+        <is>
+          <t>ethnicity_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1338" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1338" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1338" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1339" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1339" s="0" t="inlineStr">
+        <is>
+          <t>혈액형(ABO)</t>
+        </is>
+      </c>
+      <c r="D1339" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1339" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1339" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1339" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1339" s="0" t="inlineStr"/>
+      <c r="I1339" s="0" t="inlineStr"/>
+      <c r="J1339" s="0" t="inlineStr"/>
+      <c r="K1339" s="0" t="inlineStr"/>
+      <c r="L1339" s="0" t="inlineStr"/>
+      <c r="M1339" s="0" t="inlineStr"/>
+      <c r="N1339" s="0" t="inlineStr"/>
+      <c r="O1339" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1339" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="0" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1340" s="0" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1340" s="0" t="inlineStr">
+        <is>
+          <t>혈액형(RH)</t>
+        </is>
+      </c>
+      <c r="D1340" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1340" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1340" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1340" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1340" s="0" t="inlineStr"/>
+      <c r="I1340" s="0" t="inlineStr"/>
+      <c r="J1340" s="0" t="inlineStr"/>
+      <c r="K1340" s="0" t="inlineStr"/>
+      <c r="L1340" s="0" t="inlineStr"/>
+      <c r="M1340" s="0" t="inlineStr"/>
+      <c r="N1340" s="0" t="inlineStr"/>
+      <c r="O1340" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1340" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1341" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1341" s="0" t="inlineStr">
+        <is>
+          <t>care_site_id</t>
+        </is>
+      </c>
+      <c r="D1341" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1341" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1341" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1341" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1341" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1341" s="0" t="n">
+        <v>2.738612787525831</v>
+      </c>
+      <c r="J1341" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1341" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1341" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M1341" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1341" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1341" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1342" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1342" s="0" t="inlineStr">
+        <is>
+          <t>care_site_name</t>
+        </is>
+      </c>
+      <c r="D1342" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1342" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1342" s="0" t="inlineStr">
+        <is>
+          <t>심뇌재활센터</t>
+        </is>
+      </c>
+      <c r="G1342" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1342" s="0" t="inlineStr"/>
+      <c r="I1342" s="0" t="inlineStr"/>
+      <c r="J1342" s="0" t="inlineStr"/>
+      <c r="K1342" s="0" t="inlineStr"/>
+      <c r="L1342" s="0" t="inlineStr"/>
+      <c r="M1342" s="0" t="inlineStr"/>
+      <c r="N1342" s="0" t="inlineStr"/>
+      <c r="O1342" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1343" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1343" s="0" t="inlineStr">
+        <is>
+          <t>place_of_service_concept_id</t>
+        </is>
+      </c>
+      <c r="D1343" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1343" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1343" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1343" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1344" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1344" s="0" t="inlineStr">
+        <is>
+          <t>location_id</t>
+        </is>
+      </c>
+      <c r="D1344" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1344" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1344" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G1344" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1344" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="I1344" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1344" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="K1344" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="L1344" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="M1344" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="N1344" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1344" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1345" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1345" s="0" t="inlineStr">
+        <is>
+          <t>care_site_source_value</t>
+        </is>
+      </c>
+      <c r="D1345" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1345" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1345" s="0" t="n">
+        <v>2361300000</v>
+      </c>
+      <c r="G1345" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1345" s="0" t="n">
+        <v>2434567000</v>
+      </c>
+      <c r="I1345" s="0" t="n">
+        <v>161229975.037212</v>
+      </c>
+      <c r="J1345" s="0" t="n">
+        <v>2361300000</v>
+      </c>
+      <c r="K1345" s="0" t="n">
+        <v>2362000000</v>
+      </c>
+      <c r="L1345" s="0" t="n">
+        <v>2370101000</v>
+      </c>
+      <c r="M1345" s="0" t="n">
+        <v>2411800000</v>
+      </c>
+      <c r="N1345" s="0" t="n">
+        <v>2860000000</v>
+      </c>
+      <c r="O1345" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="0" t="inlineStr">
+        <is>
+          <t>field_0001</t>
+        </is>
+      </c>
+      <c r="B1346" s="0" t="inlineStr">
+        <is>
+          <t>care_site</t>
+        </is>
+      </c>
+      <c r="C1346" s="0" t="inlineStr">
+        <is>
+          <t>place_of_service_source_value</t>
+        </is>
+      </c>
+      <c r="D1346" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1346" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1346" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1346" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1346" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I1346" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1346" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1346" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L1346" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="M1346" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="N1346" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1346" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1347" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1347" s="0" t="inlineStr">
+        <is>
+          <t>provider_id</t>
+        </is>
+      </c>
+      <c r="D1347" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1347" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1347" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1347" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1347" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1347" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1347" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1347" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1347" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1347" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N1347" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1348" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1348" s="0" t="inlineStr">
+        <is>
+          <t>provider_name</t>
+        </is>
+      </c>
+      <c r="D1348" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1348" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1348" s="0" t="inlineStr">
+        <is>
+          <t>이O정</t>
+        </is>
+      </c>
+      <c r="G1348" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1348" s="0" t="inlineStr"/>
+      <c r="I1348" s="0" t="inlineStr"/>
+      <c r="J1348" s="0" t="inlineStr"/>
+      <c r="K1348" s="0" t="inlineStr"/>
+      <c r="L1348" s="0" t="inlineStr"/>
+      <c r="M1348" s="0" t="inlineStr"/>
+      <c r="N1348" s="0" t="inlineStr"/>
+      <c r="O1348" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1349" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1349" s="0" t="inlineStr">
+        <is>
+          <t>npi</t>
+        </is>
+      </c>
+      <c r="D1349" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1349" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1349" s="0" t="inlineStr"/>
+      <c r="G1349" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1349" s="0" t="inlineStr"/>
+      <c r="I1349" s="0" t="inlineStr"/>
+      <c r="J1349" s="0" t="inlineStr"/>
+      <c r="K1349" s="0" t="inlineStr"/>
+      <c r="L1349" s="0" t="inlineStr"/>
+      <c r="M1349" s="0" t="inlineStr"/>
+      <c r="N1349" s="0" t="inlineStr"/>
+      <c r="O1349" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1349" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1350" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1350" s="0" t="inlineStr">
+        <is>
+          <t>dea</t>
+        </is>
+      </c>
+      <c r="D1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1350" s="0" t="inlineStr"/>
+      <c r="G1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1350" s="0" t="inlineStr"/>
+      <c r="I1350" s="0" t="inlineStr"/>
+      <c r="J1350" s="0" t="inlineStr"/>
+      <c r="K1350" s="0" t="inlineStr"/>
+      <c r="L1350" s="0" t="inlineStr"/>
+      <c r="M1350" s="0" t="inlineStr"/>
+      <c r="N1350" s="0" t="inlineStr"/>
+      <c r="O1350" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1350" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1351" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1351" s="0" t="inlineStr">
+        <is>
+          <t>specialty_concept_id</t>
+        </is>
+      </c>
+      <c r="D1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1351" s="0" t="inlineStr"/>
+      <c r="G1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1351" s="0" t="inlineStr"/>
+      <c r="I1351" s="0" t="inlineStr"/>
+      <c r="J1351" s="0" t="inlineStr"/>
+      <c r="K1351" s="0" t="inlineStr"/>
+      <c r="L1351" s="0" t="inlineStr"/>
+      <c r="M1351" s="0" t="inlineStr"/>
+      <c r="N1351" s="0" t="inlineStr"/>
+      <c r="O1351" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1351" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1352" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1352" s="0" t="inlineStr">
+        <is>
+          <t>specialty_concept_id_name</t>
+        </is>
+      </c>
+      <c r="D1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1352" s="0" t="inlineStr"/>
+      <c r="G1352" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1352" s="0" t="inlineStr"/>
+      <c r="I1352" s="0" t="inlineStr"/>
+      <c r="J1352" s="0" t="inlineStr"/>
+      <c r="K1352" s="0" t="inlineStr"/>
+      <c r="L1352" s="0" t="inlineStr"/>
+      <c r="M1352" s="0" t="inlineStr"/>
+      <c r="N1352" s="0" t="inlineStr"/>
+      <c r="O1352" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1352" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1353" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1353" s="0" t="inlineStr">
+        <is>
+          <t>care_site_id</t>
+        </is>
+      </c>
+      <c r="D1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1353" s="0" t="inlineStr"/>
+      <c r="G1353" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1353" s="0" t="inlineStr"/>
+      <c r="I1353" s="0" t="inlineStr"/>
+      <c r="J1353" s="0" t="inlineStr"/>
+      <c r="K1353" s="0" t="inlineStr"/>
+      <c r="L1353" s="0" t="inlineStr"/>
+      <c r="M1353" s="0" t="inlineStr"/>
+      <c r="N1353" s="0" t="inlineStr"/>
+      <c r="O1353" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1353" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1354" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1354" s="0" t="inlineStr">
+        <is>
+          <t>care_site_id_name</t>
+        </is>
+      </c>
+      <c r="D1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1354" s="0" t="inlineStr"/>
+      <c r="G1354" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1354" s="0" t="inlineStr"/>
+      <c r="I1354" s="0" t="inlineStr"/>
+      <c r="J1354" s="0" t="inlineStr"/>
+      <c r="K1354" s="0" t="inlineStr"/>
+      <c r="L1354" s="0" t="inlineStr"/>
+      <c r="M1354" s="0" t="inlineStr"/>
+      <c r="N1354" s="0" t="inlineStr"/>
+      <c r="O1354" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1354" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1355" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1355" s="0" t="inlineStr">
+        <is>
+          <t>year_of_birth</t>
+        </is>
+      </c>
+      <c r="D1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1355" s="0" t="inlineStr"/>
+      <c r="G1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1355" s="0" t="inlineStr"/>
+      <c r="I1355" s="0" t="inlineStr"/>
+      <c r="J1355" s="0" t="inlineStr"/>
+      <c r="K1355" s="0" t="inlineStr"/>
+      <c r="L1355" s="0" t="inlineStr"/>
+      <c r="M1355" s="0" t="inlineStr"/>
+      <c r="N1355" s="0" t="inlineStr"/>
+      <c r="O1355" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1355" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1356" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1356" s="0" t="inlineStr">
+        <is>
+          <t>gender_concept_id</t>
+        </is>
+      </c>
+      <c r="D1356" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1356" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1356" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1356" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1356" s="0" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1356" s="0" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1356" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1356" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1356" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1356" s="0" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1356" s="0" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1357" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1357" s="0" t="inlineStr">
+        <is>
+          <t>provider_source_value</t>
+        </is>
+      </c>
+      <c r="D1357" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1357" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1357" s="0" t="n">
+        <v>5279</v>
+      </c>
+      <c r="G1357" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1357" s="0" t="n">
+        <v>6551</v>
+      </c>
+      <c r="I1357" s="0" t="n">
+        <v>2199.705434825309</v>
+      </c>
+      <c r="J1357" s="0" t="n">
+        <v>5279</v>
+      </c>
+      <c r="K1357" s="0" t="n">
+        <v>5281</v>
+      </c>
+      <c r="L1357" s="0" t="n">
+        <v>5283</v>
+      </c>
+      <c r="M1357" s="0" t="n">
+        <v>7187</v>
+      </c>
+      <c r="N1357" s="0" t="n">
+        <v>9091</v>
+      </c>
+      <c r="O1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1358" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1358" s="0" t="inlineStr">
+        <is>
+          <t>specialty_source_value</t>
+        </is>
+      </c>
+      <c r="D1358" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1358" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1358" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="G1358" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1358" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="I1358" s="0" t="n">
+        <v>110.8512516844081</v>
+      </c>
+      <c r="J1358" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="K1358" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="L1358" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="M1358" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="N1358" s="0" t="n">
+        <v>510</v>
+      </c>
+      <c r="O1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1359" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1359" s="0" t="inlineStr">
+        <is>
+          <t>specialty_source_value_name</t>
+        </is>
+      </c>
+      <c r="D1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1359" s="0" t="inlineStr"/>
+      <c r="G1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1359" s="0" t="inlineStr"/>
+      <c r="I1359" s="0" t="inlineStr"/>
+      <c r="J1359" s="0" t="inlineStr"/>
+      <c r="K1359" s="0" t="inlineStr"/>
+      <c r="L1359" s="0" t="inlineStr"/>
+      <c r="M1359" s="0" t="inlineStr"/>
+      <c r="N1359" s="0" t="inlineStr"/>
+      <c r="O1359" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1359" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1360" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1360" s="0" t="inlineStr">
+        <is>
+          <t>specialty_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1360" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1360" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1360" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1361" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1361" s="0" t="inlineStr">
+        <is>
+          <t>gender_source_value</t>
+        </is>
+      </c>
+      <c r="D1361" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1361" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1361" s="0" t="inlineStr">
+        <is>
+          <t>GNDR</t>
+        </is>
+      </c>
+      <c r="G1361" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1361" s="0" t="inlineStr"/>
+      <c r="I1361" s="0" t="inlineStr"/>
+      <c r="J1361" s="0" t="inlineStr"/>
+      <c r="K1361" s="0" t="inlineStr"/>
+      <c r="L1361" s="0" t="inlineStr"/>
+      <c r="M1361" s="0" t="inlineStr"/>
+      <c r="N1361" s="0" t="inlineStr"/>
+      <c r="O1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="0" t="inlineStr">
+        <is>
+          <t>field_0002</t>
+        </is>
+      </c>
+      <c r="B1362" s="0" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="C1362" s="0" t="inlineStr">
+        <is>
+          <t>gender_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1362" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1362" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1362" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1362" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1362" s="0" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1362" s="0" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1362" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1362" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1362" s="0" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1362" s="0" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1362" s="0" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>person_id</t>
+        </is>
+      </c>
+      <c r="D1363" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>gender_concept_id</t>
+        </is>
+      </c>
+      <c r="D1364" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>year_of_birth</t>
+        </is>
+      </c>
+      <c r="D1365" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>1947.333333333333</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>9.291573243177568</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>1937</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>1943.5</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>1950</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>1952.5</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>1955</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>month_of_birth</t>
+        </is>
+      </c>
+      <c r="D1366" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>3.511884584284246</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>day_of_birth</t>
+        </is>
+      </c>
+      <c r="D1367" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>9</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>6.082762530298219</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>6</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>birth_datetime</t>
+        </is>
+      </c>
+      <c r="D1368" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1368" s="8" t="n">
+        <v>13562</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1368" s="8" t="n">
+        <v>17439.66666666667</v>
+      </c>
+      <c r="I1368" t="inlineStr"/>
+      <c r="J1368" s="8" t="n">
+        <v>13562</v>
+      </c>
+      <c r="K1368" s="8" t="n">
+        <v>15991</v>
+      </c>
+      <c r="L1368" s="8" t="n">
+        <v>18420</v>
+      </c>
+      <c r="M1368" s="8" t="n">
+        <v>19378.5</v>
+      </c>
+      <c r="N1368" s="8" t="n">
+        <v>20337</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>death_datetime</t>
+        </is>
+      </c>
+      <c r="D1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+      <c r="J1369" t="inlineStr"/>
+      <c r="K1369" t="inlineStr"/>
+      <c r="L1369" t="inlineStr"/>
+      <c r="M1369" t="inlineStr"/>
+      <c r="N1369" t="inlineStr"/>
+      <c r="O1369" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>race_concept_id</t>
+        </is>
+      </c>
+      <c r="D1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>38003585</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>ethnicity_concept_id</t>
+        </is>
+      </c>
+      <c r="D1371" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>location_id</t>
+        </is>
+      </c>
+      <c r="D1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>325</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>346.3333333333333</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>19.13983629327412</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>325</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>352</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>357</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>362</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>provider_id</t>
+        </is>
+      </c>
+      <c r="D1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
+      <c r="K1373" t="inlineStr"/>
+      <c r="L1373" t="inlineStr"/>
+      <c r="M1373" t="inlineStr"/>
+      <c r="N1373" t="inlineStr"/>
+      <c r="O1373" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>care_site_id</t>
+        </is>
+      </c>
+      <c r="D1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
+      <c r="K1374" t="inlineStr"/>
+      <c r="L1374" t="inlineStr"/>
+      <c r="M1374" t="inlineStr"/>
+      <c r="N1374" t="inlineStr"/>
+      <c r="O1374" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>person_source_value</t>
+        </is>
+      </c>
+      <c r="D1375" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>3606480</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>4788956.333333333</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>2043529.525446191</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>3606480</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>3609125</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>3611770</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>5380194.5</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>7148619</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>환자명</t>
+        </is>
+      </c>
+      <c r="D1376" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1376" t="inlineStr">
+        <is>
+          <t>임O순</t>
+        </is>
+      </c>
+      <c r="G1376" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
+      <c r="K1376" t="inlineStr"/>
+      <c r="L1376" t="inlineStr"/>
+      <c r="M1376" t="inlineStr"/>
+      <c r="N1376" t="inlineStr"/>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>gender_source_value</t>
+        </is>
+      </c>
+      <c r="D1377" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1377" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1377" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
+      <c r="K1377" t="inlineStr"/>
+      <c r="L1377" t="inlineStr"/>
+      <c r="M1377" t="inlineStr"/>
+      <c r="N1377" t="inlineStr"/>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>gender_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1378" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>8507</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>8515.333333333334</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>14.43375672974065</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>8507</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>8507</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>8507</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>8519.5</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>8532</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>race_source_value</t>
+        </is>
+      </c>
+      <c r="D1379" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1379" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G1379" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
+      <c r="K1379" t="inlineStr"/>
+      <c r="L1379" t="inlineStr"/>
+      <c r="M1379" t="inlineStr"/>
+      <c r="N1379" t="inlineStr"/>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>race_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1380" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>ethnicity_source_value</t>
+        </is>
+      </c>
+      <c r="D1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
+      <c r="K1381" t="inlineStr"/>
+      <c r="L1381" t="inlineStr"/>
+      <c r="M1381" t="inlineStr"/>
+      <c r="N1381" t="inlineStr"/>
+      <c r="O1381" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>ethnicity_source_concept_id</t>
+        </is>
+      </c>
+      <c r="D1382" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>혈액형(ABO)</t>
+        </is>
+      </c>
+      <c r="D1383" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1383" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1383" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
+      <c r="K1383" t="inlineStr"/>
+      <c r="L1383" t="inlineStr"/>
+      <c r="M1383" t="inlineStr"/>
+      <c r="N1383" t="inlineStr"/>
+      <c r="O1383" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>field_0003</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>혈액형(RH)</t>
+        </is>
+      </c>
+      <c r="D1384" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1384" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1384" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
+      <c r="K1384" t="inlineStr"/>
+      <c r="L1384" t="inlineStr"/>
+      <c r="M1384" t="inlineStr"/>
+      <c r="N1384" t="inlineStr"/>
+      <c r="O1384" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
